--- a/Security.xlsx
+++ b/Security.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Posición</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>Todo Reporte</t>
+  </si>
+  <si>
+    <t>Botones</t>
+  </si>
+  <si>
+    <t>Sincronizador</t>
+  </si>
+  <si>
+    <t>Pedidos</t>
+  </si>
+  <si>
+    <t>Pos</t>
   </si>
 </sst>
 </file>
@@ -223,22 +235,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C74"/>
+  <dimension ref="A4:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -536,7 +548,7 @@
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -546,9 +558,12 @@
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
@@ -557,237 +572,267 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="F5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="3">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3">
         <v>13</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3">
         <v>15</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="3">
         <v>16</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="4">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3">
         <v>17</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="4">
+      <c r="A22" s="10"/>
+      <c r="B22" s="3">
         <v>18</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="4">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3">
         <v>19</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="4">
+      <c r="A24" s="10"/>
+      <c r="B24" s="3">
         <v>20</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>21</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5">
+      <c r="A26" s="7"/>
+      <c r="B26" s="4">
         <v>22</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="5">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4">
         <v>23</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="5">
+      <c r="A28" s="7"/>
+      <c r="B28" s="4">
         <v>24</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="5">
+      <c r="A29" s="7"/>
+      <c r="B29" s="4">
         <v>25</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="5">
+      <c r="A30" s="7"/>
+      <c r="B30" s="4">
         <v>26</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="5">
+      <c r="A31" s="7"/>
+      <c r="B31" s="4">
         <v>27</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="5">
+      <c r="A32" s="7"/>
+      <c r="B32" s="4">
         <v>28</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="5">
+      <c r="A33" s="7"/>
+      <c r="B33" s="4">
         <v>29</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="5">
+      <c r="A34" s="7"/>
+      <c r="B34" s="4">
         <v>30</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -795,79 +840,79 @@
       <c r="A35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>31</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>32</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>33</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>34</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>35</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>36</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>37</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>38</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>39</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>40</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -875,244 +920,245 @@
       <c r="A45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="6">
         <v>41</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
-      <c r="B46" s="10">
+      <c r="B46" s="6">
         <v>42</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
-      <c r="B47" s="10">
+      <c r="B47" s="6">
         <v>43</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
-      <c r="B48" s="10">
+      <c r="B48" s="6">
         <v>44</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
-      <c r="B49" s="10">
+      <c r="B49" s="6">
         <v>45</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
-      <c r="B50" s="10">
+      <c r="B50" s="6">
         <v>46</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
-      <c r="B51" s="10">
+      <c r="B51" s="6">
         <v>47</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
-      <c r="B52" s="10">
+      <c r="B52" s="6">
         <v>48</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="6"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
-      <c r="B53" s="10">
+      <c r="B53" s="6">
         <v>49</v>
       </c>
-      <c r="C53" s="10"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
-      <c r="B54" s="10">
+      <c r="B54" s="6">
         <v>50</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>51</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="4">
+      <c r="A56" s="10"/>
+      <c r="B56" s="3">
         <v>52</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="4">
+      <c r="A57" s="10"/>
+      <c r="B57" s="3">
         <v>53</v>
       </c>
-      <c r="C57" s="4"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="4">
+      <c r="A58" s="10"/>
+      <c r="B58" s="3">
         <v>54</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="4">
+      <c r="A59" s="10"/>
+      <c r="B59" s="3">
         <v>55</v>
       </c>
-      <c r="C59" s="4"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="4">
+      <c r="A60" s="10"/>
+      <c r="B60" s="3">
         <v>56</v>
       </c>
-      <c r="C60" s="4"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="4">
+      <c r="A61" s="10"/>
+      <c r="B61" s="3">
         <v>57</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="4">
+      <c r="A62" s="10"/>
+      <c r="B62" s="3">
         <v>58</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="4">
+      <c r="A63" s="10"/>
+      <c r="B63" s="3">
         <v>59</v>
       </c>
-      <c r="C63" s="4"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="4">
+      <c r="A64" s="10"/>
+      <c r="B64" s="3">
         <v>60</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>61</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="5">
+      <c r="A66" s="7"/>
+      <c r="B66" s="4">
         <v>62</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="5">
+      <c r="A67" s="7"/>
+      <c r="B67" s="4">
         <v>63</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="5">
+      <c r="A68" s="7"/>
+      <c r="B68" s="4">
         <v>64</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="5">
+      <c r="A69" s="7"/>
+      <c r="B69" s="4">
         <v>65</v>
       </c>
-      <c r="C69" s="5"/>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="5">
+      <c r="A70" s="7"/>
+      <c r="B70" s="4">
         <v>66</v>
       </c>
-      <c r="C70" s="5"/>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="5">
+      <c r="A71" s="7"/>
+      <c r="B71" s="4">
         <v>67</v>
       </c>
-      <c r="C71" s="5"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="5">
+      <c r="A72" s="7"/>
+      <c r="B72" s="4">
         <v>68</v>
       </c>
-      <c r="C72" s="5"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="5">
+      <c r="A73" s="7"/>
+      <c r="B73" s="4">
         <v>69</v>
       </c>
-      <c r="C73" s="5"/>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="5">
+      <c r="A74" s="7"/>
+      <c r="B74" s="4">
         <v>70</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="F5:F14"/>
     <mergeCell ref="A65:A74"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A45:A54"/>

--- a/Security.xlsx
+++ b/Security.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cadena" sheetId="2" r:id="rId1"/>
+    <sheet name="Menu" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="131">
   <si>
     <t>Sistema</t>
   </si>
@@ -116,9 +117,6 @@
     <t>Información Gerencial</t>
   </si>
   <si>
-    <t>Login con Usuario</t>
-  </si>
-  <si>
     <t>Sin Asignar</t>
   </si>
   <si>
@@ -156,6 +154,270 @@
   </si>
   <si>
     <t>Diccionario de Datos Toolbox V3</t>
+  </si>
+  <si>
+    <t>menu item name</t>
+  </si>
+  <si>
+    <t>Cambiar Usuario</t>
+  </si>
+  <si>
+    <t>tsmi_ventas</t>
+  </si>
+  <si>
+    <t>tsmi_ventas1</t>
+  </si>
+  <si>
+    <t>tsmi_ventas2</t>
+  </si>
+  <si>
+    <t>tsmi_ventas3</t>
+  </si>
+  <si>
+    <t>tsmi_ventas4</t>
+  </si>
+  <si>
+    <t>tsmi_ventas5</t>
+  </si>
+  <si>
+    <t>tsmi_ventas6</t>
+  </si>
+  <si>
+    <t>tsmi_ventas7</t>
+  </si>
+  <si>
+    <t>tsmi_ventas8</t>
+  </si>
+  <si>
+    <t>tsmi_ventas9</t>
+  </si>
+  <si>
+    <t>tsmi_envios</t>
+  </si>
+  <si>
+    <t>tsmi_envios1</t>
+  </si>
+  <si>
+    <t>tsmi_envios2</t>
+  </si>
+  <si>
+    <t>tsmi_envios3</t>
+  </si>
+  <si>
+    <t>tsmi_envios4</t>
+  </si>
+  <si>
+    <t>tsmi_envios5</t>
+  </si>
+  <si>
+    <t>tsmi_envios6</t>
+  </si>
+  <si>
+    <t>tsmi_envios7</t>
+  </si>
+  <si>
+    <t>tsmi_envios8</t>
+  </si>
+  <si>
+    <t>tsmi_envios9</t>
+  </si>
+  <si>
+    <t>tsmi_cobros</t>
+  </si>
+  <si>
+    <t>tsmi_cobros1</t>
+  </si>
+  <si>
+    <t>tsmi_cobros2</t>
+  </si>
+  <si>
+    <t>tsmi_cobros3</t>
+  </si>
+  <si>
+    <t>tsmi_cobros4</t>
+  </si>
+  <si>
+    <t>tsmi_cobros5</t>
+  </si>
+  <si>
+    <t>tsmi_cobros6</t>
+  </si>
+  <si>
+    <t>tsmi_cobros7</t>
+  </si>
+  <si>
+    <t>tsmi_cobros8</t>
+  </si>
+  <si>
+    <t>tsmi_cobros9</t>
+  </si>
+  <si>
+    <t>tsmi_inventario</t>
+  </si>
+  <si>
+    <t>tsmi_admin</t>
+  </si>
+  <si>
+    <t>tsmi_inventario1</t>
+  </si>
+  <si>
+    <t>tsmi_inventario2</t>
+  </si>
+  <si>
+    <t>tsmi_inventario3</t>
+  </si>
+  <si>
+    <t>tsmi_inventario4</t>
+  </si>
+  <si>
+    <t>tsmi_inventario5</t>
+  </si>
+  <si>
+    <t>tsmi_inventario6</t>
+  </si>
+  <si>
+    <t>tsmi_inventario7</t>
+  </si>
+  <si>
+    <t>tsmi_inventario8</t>
+  </si>
+  <si>
+    <t>tsmi_inventario9</t>
+  </si>
+  <si>
+    <t>tsmi_admin1</t>
+  </si>
+  <si>
+    <t>tsmi_admin2</t>
+  </si>
+  <si>
+    <t>tsmi_admin3</t>
+  </si>
+  <si>
+    <t>tsmi_admin4</t>
+  </si>
+  <si>
+    <t>tsmi_admin5</t>
+  </si>
+  <si>
+    <t>tsmi_admin6</t>
+  </si>
+  <si>
+    <t>tsmi_admin7</t>
+  </si>
+  <si>
+    <t>tsmi_admin8</t>
+  </si>
+  <si>
+    <t>tsmi_admin9</t>
+  </si>
+  <si>
+    <t>tsmi_gerencia</t>
+  </si>
+  <si>
+    <t>tsmi_gerencia1</t>
+  </si>
+  <si>
+    <t>tsmi_gerencia2</t>
+  </si>
+  <si>
+    <t>tsmi_gerencia3</t>
+  </si>
+  <si>
+    <t>tsmi_gerencia4</t>
+  </si>
+  <si>
+    <t>tsmi_gerencia5</t>
+  </si>
+  <si>
+    <t>tsmi_gerencia6</t>
+  </si>
+  <si>
+    <t>tsmi_gerencia7</t>
+  </si>
+  <si>
+    <t>tsmi_gerencia8</t>
+  </si>
+  <si>
+    <t>tsmi_gerencia9</t>
+  </si>
+  <si>
+    <t>tsmi_sys</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>tsmi_sys1</t>
+  </si>
+  <si>
+    <t>tsmi_sys2</t>
+  </si>
+  <si>
+    <t>tsmi_sys3</t>
+  </si>
+  <si>
+    <t>tsmi_sys4</t>
+  </si>
+  <si>
+    <t>tsmi_sys5</t>
+  </si>
+  <si>
+    <t>tsmi_sys6</t>
+  </si>
+  <si>
+    <t>tsmi_sys7</t>
+  </si>
+  <si>
+    <t>tsmi_sys8</t>
+  </si>
+  <si>
+    <t>tsmi_sys9</t>
+  </si>
+  <si>
+    <t>tmsi_report1</t>
+  </si>
+  <si>
+    <t>tmsi_report2</t>
+  </si>
+  <si>
+    <t>tmsi_report3</t>
+  </si>
+  <si>
+    <t>tmsi_report4</t>
+  </si>
+  <si>
+    <t>tmsi_report5</t>
+  </si>
+  <si>
+    <t>tmsi_report6</t>
+  </si>
+  <si>
+    <t>tmsi_report7</t>
+  </si>
+  <si>
+    <t>tmsi_report8</t>
+  </si>
+  <si>
+    <t>tmsi_report9</t>
+  </si>
+  <si>
+    <t>tsmi_bsync</t>
+  </si>
+  <si>
+    <t>tsmi_binv</t>
+  </si>
+  <si>
+    <t>tsmi_bpedido</t>
+  </si>
+  <si>
+    <t>tsmi_benv</t>
+  </si>
+  <si>
+    <t>tsmi_bcob</t>
+  </si>
+  <si>
+    <t>tsmi_bger</t>
   </si>
 </sst>
 </file>
@@ -258,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -297,6 +559,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -597,17 +860,17 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -617,10 +880,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -669,7 +932,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1">
         <v>33</v>
@@ -685,7 +948,7 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1">
         <v>34</v>
@@ -701,7 +964,7 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1">
         <v>35</v>
@@ -717,7 +980,7 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1">
         <v>36</v>
@@ -726,14 +989,14 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>7</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1">
         <v>37</v>
@@ -742,14 +1005,14 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1">
         <v>38</v>
@@ -765,7 +1028,7 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1">
         <v>39</v>
@@ -774,14 +1037,14 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1">
         <v>40</v>
@@ -833,7 +1096,7 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1">
         <v>43</v>
@@ -881,7 +1144,7 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="1">
         <v>46</v>
@@ -890,14 +1153,14 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
         <v>17</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="1">
         <v>47</v>
@@ -906,14 +1169,14 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <v>18</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" s="1">
         <v>48</v>
@@ -922,14 +1185,14 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
         <v>19</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="1">
         <v>49</v>
@@ -938,14 +1201,14 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1">
         <v>20</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" s="1">
         <v>50</v>
@@ -956,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1">
         <v>21</v>
@@ -1038,14 +1301,14 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1">
         <v>26</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" s="1">
         <v>56</v>
@@ -1054,14 +1317,14 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="1">
         <v>27</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35" s="1">
         <v>57</v>
@@ -1070,14 +1333,14 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="1">
         <v>28</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36" s="1">
         <v>58</v>
@@ -1086,14 +1349,14 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <v>29</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37" s="1">
         <v>59</v>
@@ -1102,14 +1365,14 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1">
         <v>30</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" s="1">
         <v>60</v>
@@ -1133,7 +1396,7 @@
         <v>29</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41" s="1">
         <v>81</v>
@@ -1149,7 +1412,7 @@
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42" s="1">
         <v>82</v>
@@ -1165,7 +1428,7 @@
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43" s="1">
         <v>83</v>
@@ -1174,14 +1437,14 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" s="1">
         <v>64</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44" s="1">
         <v>84</v>
@@ -1190,14 +1453,14 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C45" s="1">
         <v>65</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45" s="1">
         <v>85</v>
@@ -1206,14 +1469,14 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1">
         <v>66</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46" s="1">
         <v>86</v>
@@ -1222,14 +1485,14 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" s="1">
         <v>67</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" s="1">
         <v>87</v>
@@ -1238,14 +1501,14 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" s="1">
         <v>68</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48" s="1">
         <v>88</v>
@@ -1254,14 +1517,14 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="1">
         <v>69</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49" s="1">
         <v>89</v>
@@ -1270,14 +1533,14 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" s="1">
         <v>70</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" s="1">
         <v>90</v>
@@ -1288,13 +1551,13 @@
         <v>28</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C52" s="1">
         <v>71</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>23</v>
@@ -1306,14 +1569,14 @@
     <row r="53" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C53" s="1">
         <v>72</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G53" s="1">
         <v>92</v>
@@ -1322,14 +1585,14 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1">
         <v>73</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" s="1">
         <v>93</v>
@@ -1338,14 +1601,14 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C55" s="1">
         <v>74</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G55" s="1">
         <v>94</v>
@@ -1354,14 +1617,14 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" s="1">
         <v>75</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56" s="1">
         <v>95</v>
@@ -1370,14 +1633,14 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C57" s="1">
         <v>76</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G57" s="1">
         <v>96</v>
@@ -1386,14 +1649,14 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" s="1">
         <v>77</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" s="1">
         <v>97</v>
@@ -1402,14 +1665,14 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="1">
         <v>78</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59" s="1">
         <v>98</v>
@@ -1418,14 +1681,14 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C60" s="1">
         <v>79</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" s="1">
         <v>99</v>
@@ -1434,14 +1697,14 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="1">
         <v>80</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" s="1">
         <v>100</v>
@@ -1465,4 +1728,1143 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1">
+        <v>43</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1">
+        <v>44</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1">
+        <v>46</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1">
+        <v>47</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1">
+        <v>48</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1">
+        <v>49</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="1">
+        <v>51</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="1">
+        <v>52</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="1">
+        <v>53</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1">
+        <v>54</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="1">
+        <v>55</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1">
+        <v>56</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="1">
+        <v>57</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>28</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="1">
+        <v>58</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1">
+        <v>59</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1">
+        <v>61</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="1">
+        <v>81</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1">
+        <v>62</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="1">
+        <v>82</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1">
+        <v>63</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="1">
+        <v>83</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>64</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="1">
+        <v>84</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1">
+        <v>65</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="1">
+        <v>85</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1">
+        <v>66</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="1">
+        <v>86</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="1">
+        <v>67</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="1">
+        <v>87</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1">
+        <v>68</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="1">
+        <v>88</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1">
+        <v>69</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="1">
+        <v>89</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="1">
+        <v>70</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="1">
+        <v>71</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="1">
+        <v>91</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="1">
+        <v>72</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="1">
+        <v>92</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="1">
+        <v>73</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="1">
+        <v>93</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1">
+        <v>74</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="1">
+        <v>94</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="1">
+        <v>75</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="1">
+        <v>95</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="1">
+        <v>76</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="1">
+        <v>96</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>77</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="1">
+        <v>97</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="1">
+        <v>78</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="1">
+        <v>98</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="1">
+        <v>79</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="1">
+        <v>99</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="1">
+        <v>80</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="E36:E45"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="E47:E56"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="E13:E22"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="E24:E33"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>